--- a/Power_Supply/Berechnungen.xlsx
+++ b/Power_Supply/Berechnungen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Desktop\Projects\7-Segment-RGB-Clock\Power_Supply\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D57C69-2A42-4B56-A05F-9636772BC28F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E7D3AF-6317-4141-9FC5-F73009FF2D29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="8985" xr2:uid="{21FBA74D-5B12-4625-9E20-6E847FD27B9F}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318E5BD0-D260-4911-85D8-C43EAE2C4C8F}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="B1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -441,7 +441,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -452,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -464,7 +464,7 @@
       </c>
       <c r="B5">
         <f>B1*SUM(B2:B4)</f>
-        <v>30.5</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -487,10 +487,49 @@
       </c>
       <c r="B7">
         <f>B6+B5</f>
-        <v>60.5</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B11">
+        <f>A11*SQRT(2)</f>
+        <v>14.424978336205569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.27</v>
+      </c>
+      <c r="B12">
+        <f>A12/2</f>
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>(A14-A15)*A16</f>
+        <v>7.9999999999999982</v>
       </c>
     </row>
   </sheetData>
